--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>单位</t>
+  </si>
   <si>
     <t>类别</t>
   </si>
@@ -49,6 +52,9 @@
     <t>2013年</t>
   </si>
   <si>
+    <t>控股</t>
+  </si>
+  <si>
     <t>担保费对外</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>租金</t>
+  </si>
+  <si>
+    <t>城投</t>
   </si>
 </sst>
 </file>
@@ -78,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -118,6 +127,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,61 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,74 +269,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,25 +285,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,156 +459,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -479,20 +488,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,36 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,157 +574,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +782,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +793,12 @@
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,18 +1119,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="B13:C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.3928571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.95535714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3928571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1109,128 +1165,275 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="20.4" customHeight="1" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" spans="1:12">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" ht="15.6" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" ht="15.6" customHeight="1" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" ht="20.4" customHeight="1" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" ht="20.4" customHeight="1" spans="1:12">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1" spans="1:12">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" ht="15.6" customHeight="1" spans="1:12">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" ht="15.6" customHeight="1" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" ht="20.4" customHeight="1" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:12">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="20.4" customHeight="1" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:12">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" ht="15.6" customHeight="1" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:12">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" ht="15.6" customHeight="1" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>单位</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>控股</t>
+  </si>
+  <si>
+    <t>其他收入</t>
   </si>
   <si>
     <t>小计</t>
@@ -99,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,7 +148,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,8 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +222,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,76 +267,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,29 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,19 +313,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,43 +457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,109 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,8 +556,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +582,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,39 +637,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -645,148 +655,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,17 +1150,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.0714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9642857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3928571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3035714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
@@ -1202,47 +1212,47 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <f>C11+C20</f>
+        <f>C11+C21</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>D11+D20</f>
+        <f>D11+D21</f>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>E11+E20</f>
+        <f>E11+E21</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>F11+F20</f>
+        <f>F11+F21</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>G11+G20</f>
+        <f>G11+G21</f>
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>H11+H20</f>
+        <f>H11+H21</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>I11+I20</f>
+        <f>I11+I21</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>J11+J20</f>
+        <f>J11+J21</f>
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>K11+K20</f>
+        <f>K11+K21</f>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>L11+L20</f>
+        <f>L11+L21</f>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>M11+M20</f>
+        <f>M11+M21</f>
         <v>0</v>
       </c>
     </row>
@@ -1252,47 +1262,47 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <f>C12+C21</f>
+        <f>C12+C22</f>
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>D12+D21</f>
+        <f>D12+D22</f>
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f>E12+E21</f>
+        <f>E12+E22</f>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>F12+F21</f>
+        <f>F12+F22</f>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>G12+G21</f>
+        <f>G12+G22</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>H12+H21</f>
+        <f>H12+H22</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>I12+I21</f>
+        <f>I12+I22</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>J12+J21</f>
+        <f>J12+J22</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>K12+K21</f>
+        <f>K12+K22</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>L12+L21</f>
+        <f>L12+L22</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>M12+M21</f>
+        <f>M12+M22</f>
         <v>0</v>
       </c>
     </row>
@@ -1302,47 +1312,47 @@
         <v>16</v>
       </c>
       <c r="C4" s="4">
-        <f>C13+C22</f>
+        <f>C13+C23</f>
         <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f>D13+D22</f>
+        <f>D13+D23</f>
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f>E13+E22</f>
+        <f>E13+E23</f>
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f>F13+F22</f>
+        <f>F13+F23</f>
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>G13+G22</f>
+        <f>G13+G23</f>
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <f>H13+H22</f>
+        <f>H13+H23</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>I13+I22</f>
+        <f>I13+I23</f>
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <f>J13+J22</f>
+        <f>J13+J23</f>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f>K13+K22</f>
+        <f>K13+K23</f>
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <f>L13+L22</f>
+        <f>L13+L23</f>
         <v>0</v>
       </c>
       <c r="M4" s="6">
-        <f>M13+M22</f>
+        <f>M13+M23</f>
         <v>0</v>
       </c>
     </row>
@@ -1352,47 +1362,47 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <f>C14+C23</f>
+        <f>C14+C24</f>
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <f>D14+D23</f>
+        <f>D14+D24</f>
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f>E14+E23</f>
+        <f>E14+E24</f>
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <f>F14+F23</f>
+        <f>F14+F24</f>
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <f>G14+G23</f>
+        <f>G14+G24</f>
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f>H14+H23</f>
+        <f>H14+H24</f>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f>I14+I23</f>
+        <f>I14+I24</f>
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <f>J14+J23</f>
+        <f>J14+J24</f>
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <f>K14+K23</f>
+        <f>K14+K24</f>
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <f>L14+L23</f>
+        <f>L14+L24</f>
         <v>0</v>
       </c>
       <c r="M5" s="6">
-        <f>M14+M23</f>
+        <f>M14+M24</f>
         <v>0</v>
       </c>
     </row>
@@ -1402,47 +1412,47 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <f>C15+C24</f>
+        <f>C15+C25</f>
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <f>D15+D24</f>
+        <f>D15+D25</f>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f>E15+E24</f>
+        <f>E15+E25</f>
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f>F15+F24</f>
+        <f>F15+F25</f>
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f>G15+G24</f>
+        <f>G15+G25</f>
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <f>H15+H24</f>
+        <f>H15+H25</f>
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>I15+I24</f>
+        <f>I15+I25</f>
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <f>J15+J24</f>
+        <f>J15+J25</f>
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <f>K15+K24</f>
+        <f>K15+K25</f>
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <f>L15+L24</f>
+        <f>L15+L25</f>
         <v>0</v>
       </c>
       <c r="M6" s="6">
-        <f>M15+M24</f>
+        <f>M15+M25</f>
         <v>0</v>
       </c>
     </row>
@@ -1452,47 +1462,47 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <f>C16+C25</f>
+        <f>C16+C26</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <f>D16+D25</f>
+        <f>D16+D26</f>
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f>E16+E25</f>
+        <f>E16+E26</f>
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>F16+F25</f>
+        <f>F16+F26</f>
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <f>G16+G25</f>
+        <f>G16+G26</f>
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <f>H16+H25</f>
+        <f>H16+H26</f>
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f>I16+I25</f>
+        <f>I16+I26</f>
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <f>J16+J25</f>
+        <f>J16+J26</f>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f>K16+K25</f>
+        <f>K16+K26</f>
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f>L16+L25</f>
+        <f>L16+L26</f>
         <v>0</v>
       </c>
       <c r="M7" s="6">
-        <f>M16+M25</f>
+        <f>M16+M26</f>
         <v>0</v>
       </c>
     </row>
@@ -1502,47 +1512,47 @@
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f>C17+C26</f>
+        <f>C17+C27</f>
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <f>D17+D26</f>
+        <f>D17+D27</f>
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <f>E17+E26</f>
+        <f>E17+E27</f>
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>F17+F26</f>
+        <f>F17+F27</f>
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f>G17+G26</f>
+        <f>G17+G27</f>
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f>H17+H26</f>
+        <f>H17+H27</f>
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f>I17+I26</f>
+        <f>I17+I27</f>
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <f>J17+J26</f>
+        <f>J17+J27</f>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f>K17+K26</f>
+        <f>K17+K27</f>
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f>L17+L26</f>
+        <f>L17+L27</f>
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <f>M17+M26</f>
+        <f>M17+M27</f>
         <v>0</v>
       </c>
     </row>
@@ -1552,47 +1562,47 @@
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f>C18+C27</f>
+        <f>C18+C28</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D18+D27</f>
+        <f>D18+D28</f>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E18+E27</f>
+        <f>E18+E28</f>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F18+F27</f>
+        <f>F18+F28</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G18+G27</f>
+        <f>G18+G28</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H18+H27</f>
+        <f>H18+H28</f>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I18+I27</f>
+        <f>I18+I28</f>
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <f>J18+J27</f>
+        <f>J18+J28</f>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f>K18+K27</f>
+        <f>K18+K28</f>
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <f>L18+L27</f>
+        <f>L18+L28</f>
         <v>0</v>
       </c>
       <c r="M9" s="6">
-        <f>M18+M27</f>
+        <f>M18+M28</f>
         <v>0</v>
       </c>
     </row>
@@ -1602,47 +1612,47 @@
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f>C19+C28</f>
+        <f>C20+C30</f>
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <f>D19+D28</f>
+        <f>D20+D30</f>
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f>E19+E28</f>
+        <f>E20+E30</f>
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f>F19+F28</f>
+        <f>F20+F30</f>
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <f>G19+G28</f>
+        <f>G20+G30</f>
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f>H19+H28</f>
+        <f>H20+H30</f>
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f>I19+I28</f>
+        <f>I20+I30</f>
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <f>J19+J28</f>
+        <f>J20+J30</f>
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f>K19+K28</f>
+        <f>K20+K30</f>
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <f>L19+L28</f>
+        <f>L20+L30</f>
         <v>0</v>
       </c>
       <c r="M10" s="6">
-        <f>M19+M28</f>
+        <f>M20+M30</f>
         <v>0</v>
       </c>
     </row>
@@ -1785,81 +1795,81 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="7"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:13">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
         <f>SUM(C11:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <f>SUM(D11:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f>SUM(E11:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <f>SUM(F11:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <f>SUM(G11:G18)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <f>SUM(H11:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <f>SUM(I11:I18)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <f>SUM(J11:J18)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <f>SUM(K11:K18)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <f>SUM(L11:L18)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <f>SUM(M11:M18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="21" customHeight="1" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1873,7 +1883,7 @@
     <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1890,10 +1900,10 @@
     <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1907,10 +1917,10 @@
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1924,10 +1934,10 @@
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1941,7 +1951,7 @@
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1958,7 +1968,7 @@
     <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
@@ -1973,60 +1983,94 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="7"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4">
-        <f>SUM(C20:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <f>SUM(D20:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <f>SUM(E20:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <f>SUM(F20:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <f>SUM(G20:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <f>SUM(H20:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <f>SUM(I20:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <f>SUM(J20:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <f>SUM(K20:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <f>SUM(L20:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <f>SUM(M20:M27)</f>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:13">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4">
+        <f>SUM(C21:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D21:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f>SUM(E21:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f>SUM(F21:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(G21:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f>SUM(H21:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f>SUM(I21:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f>SUM(J21:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <f>SUM(K21:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <f>SUM(L21:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f>SUM(M21:M28)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A30"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -148,21 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +162,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -191,18 +192,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,7 +232,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,72 +285,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,13 +313,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,13 +385,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,145 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,8 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,7 +566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,11 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,21 +620,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -655,124 +655,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,22 +781,22 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
@@ -1663,7 +1663,10 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <f>SUM(E11:M11)</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1680,7 +1683,10 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <f>SUM(E12:M12)</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1697,7 +1703,10 @@
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <f>SUM(E13:M13)</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1714,7 +1723,10 @@
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <f>SUM(E14:M14)</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1731,7 +1743,10 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4">
+        <f>SUM(E15:M15)</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1748,7 +1763,10 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <f>SUM(E16:M16)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1765,7 +1783,10 @@
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <f>SUM(E17:M17)</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1782,7 +1803,10 @@
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <f>SUM(E18:M18)</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -1817,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="4">
-        <f>SUM(C11:C18)</f>
+        <f>SUM(C11:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
@@ -1868,7 +1892,10 @@
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4">
+        <f>SUM(E21:M21)</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1885,7 +1912,10 @@
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <f>SUM(E22:M22)</f>
+        <v>0</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -1902,7 +1932,10 @@
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <f>SUM(E23:M23)</f>
+        <v>0</v>
+      </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1919,7 +1952,10 @@
       <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="4">
+        <f>SUM(E24:M24)</f>
+        <v>0</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -1936,7 +1972,10 @@
       <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <f>SUM(E25:M25)</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -1953,7 +1992,10 @@
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4">
+        <f>SUM(E26:M26)</f>
+        <v>0</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1970,7 +2012,10 @@
       <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="4">
+        <f>SUM(E27:M27)</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -1987,7 +2032,10 @@
       <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="4">
+        <f>SUM(E28:M28)</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2022,7 +2070,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4">
-        <f>SUM(C21:C28)</f>
+        <f>SUM(C21:C29)</f>
         <v>0</v>
       </c>
       <c r="D30" s="4">

--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>单位</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>控股</t>
+  </si>
+  <si>
+    <t>管理费及其他</t>
+  </si>
+  <si>
+    <t>税收奖励及政府补助</t>
   </si>
   <si>
     <t>其他收入</t>
@@ -102,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,9 +154,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,29 +238,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,20 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,45 +269,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -276,9 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +296,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,19 +312,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,151 +438,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,17 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +576,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,11 +611,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,179 +649,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,13 +1152,13 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3928571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.3035714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1212,47 +1211,47 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <f>C11+C21</f>
+        <f t="shared" ref="C2:M2" si="0">C11+C21</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>D11+D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>E11+E21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>F11+F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>G11+G21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>H11+H21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>I11+I21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>J11+J21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <f>K11+K21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <f>L11+L21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>M11+M21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1262,47 +1261,47 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <f>C12+C22</f>
+        <f t="shared" ref="C3:M3" si="1">C12+C22</f>
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f>D12+D22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f>E12+E22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <f>F12+F22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>G12+G22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>H12+H22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>I12+I22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>J12+J22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>K12+K22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>L12+L22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>M12+M22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1312,47 +1311,47 @@
         <v>16</v>
       </c>
       <c r="C4" s="4">
-        <f>C13+C23</f>
+        <f t="shared" ref="C4:M4" si="2">C13+C23</f>
         <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f>D13+D23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f>E13+E23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f>F13+F23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f>G13+G23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <f>H13+H23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f>I13+I23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <f>J13+J23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f>K13+K23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <f>L13+L23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M4" s="6">
-        <f>M13+M23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1362,47 +1361,47 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <f>C14+C24</f>
+        <f t="shared" ref="C5:M5" si="3">C14+C24</f>
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <f>D14+D24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f>E14+E24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <f>F14+F24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <f>G14+G24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f>H14+H24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f>I14+I24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <f>J14+J24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <f>K14+K24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <f>L14+L24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" s="6">
-        <f>M14+M24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1412,47 +1411,47 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <f>C15+C25</f>
+        <f t="shared" ref="C6:M6" si="4">C15+C25</f>
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <f>D15+D25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f>E15+E25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <f>F15+F25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f>G15+G25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <f>H15+H25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>I15+I25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="6">
-        <f>J15+J25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <f>K15+K25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L6" s="6">
-        <f>L15+L25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6" s="6">
-        <f>M15+M25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1462,47 +1461,47 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <f>C16+C26</f>
+        <f t="shared" ref="C7:M7" si="5">C16+C26</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <f>D16+D26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f>E16+E26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>F16+F26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <f>G16+G26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <f>H16+H26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f>I16+I26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <f>J16+J26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f>K16+K26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f>L16+L26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M7" s="6">
-        <f>M16+M26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1512,47 +1511,47 @@
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f>C17+C27</f>
+        <f t="shared" ref="C8:M8" si="6">C17+C27</f>
         <v>0</v>
       </c>
       <c r="D8" s="6">
-        <f>D17+D27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <f>E17+E27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F8" s="6">
-        <f>F17+F27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="6">
-        <f>G17+G27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f>H17+H27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f>I17+I27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J8" s="6">
-        <f>J17+J27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f>K17+K27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f>L17+L27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <f>M17+M27</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1562,47 +1561,47 @@
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f>C18+C28</f>
+        <f t="shared" ref="C9:M9" si="7">C18+C28</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <f>D18+D28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <f>E18+E28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f>F18+F28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>G18+G28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <f>H18+H28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f>I18+I28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J9" s="6">
-        <f>J18+J28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f>K18+K28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <f>L18+L28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M9" s="6">
-        <f>M18+M28</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1612,47 +1611,47 @@
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <f>C20+C30</f>
+        <f t="shared" ref="C10:M10" si="8">C20+C30</f>
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <f>D20+D30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <f>E20+E30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f>F20+F30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G10" s="6">
-        <f>G20+G30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <f>H20+H30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f>I20+I30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J10" s="6">
-        <f>J20+J30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <f>K20+K30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <f>L20+L30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M10" s="6">
-        <f>M20+M30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1664,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM(E11:M11)</f>
+        <f t="shared" ref="C11:C18" si="9">SUM(E11:M11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
@@ -1684,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM(E12:M12)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
@@ -1701,10 +1700,10 @@
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM(E13:M13)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
@@ -1724,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM(E14:M14)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D14" s="8"/>
@@ -1744,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM(E15:M15)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D15" s="9"/>
@@ -1761,10 +1760,10 @@
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM(E16:M16)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D16" s="6"/>
@@ -1784,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM(E17:M17)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
@@ -1804,7 +1803,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <f>SUM(E18:M18)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
@@ -1821,7 +1820,7 @@
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
@@ -1838,62 +1837,62 @@
     <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="7"/>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <f>SUM(C11:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f>SUM(D11:D18)</f>
+        <f t="shared" ref="D20:M20" si="10">SUM(D11:D18)</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f>SUM(E11:E18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <f>SUM(F11:F18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f>SUM(G11:G18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>SUM(H11:H18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>SUM(I11:I18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <f>SUM(J11:J18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>SUM(K11:K18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>SUM(L11:L18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f>SUM(M11:M18)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4">
-        <f>SUM(E21:M21)</f>
+        <f t="shared" ref="C21:C28" si="11">SUM(E21:M21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="8"/>
@@ -1913,7 +1912,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <f>SUM(E22:M22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
@@ -1933,7 +1932,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="4">
-        <f>SUM(E23:M23)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D23" s="6"/>
@@ -1953,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="4">
-        <f>SUM(E24:M24)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D24" s="8"/>
@@ -1973,7 +1972,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="4">
-        <f>SUM(E25:M25)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D25" s="9"/>
@@ -1993,7 +1992,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="4">
-        <f>SUM(E26:M26)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
@@ -2013,7 +2012,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="4">
-        <f>SUM(E27:M27)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D27" s="6"/>
@@ -2033,7 +2032,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="4">
-        <f>SUM(E28:M28)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D28" s="6"/>
@@ -2050,7 +2049,7 @@
     <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
@@ -2067,50 +2066,50 @@
     <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <f>SUM(C21:C29)</f>
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <f>SUM(D21:D28)</f>
+        <f t="shared" ref="D30:M30" si="12">SUM(D21:D28)</f>
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f>SUM(E21:E28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(F21:F28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(G21:G28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>SUM(H21:H28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <f>SUM(I21:I28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f>SUM(J21:J28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f>SUM(K21:K28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <f>SUM(L21:L28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f>SUM(M21:M28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11820"/>
+    <workbookView windowWidth="28060" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="收入汇总表" sheetId="1" r:id="rId1"/>
@@ -82,6 +82,9 @@
     <t>租金</t>
   </si>
   <si>
+    <t>其他收入</t>
+  </si>
+  <si>
     <t>累计</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>税收奖励及政府补助</t>
-  </si>
-  <si>
-    <t>其他收入</t>
   </si>
   <si>
     <t>小计</t>
@@ -108,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -182,8 +182,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,60 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,37 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -312,55 +312,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,115 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +561,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -585,6 +594,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -592,21 +616,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,25 +635,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -657,121 +657,121 @@
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,16 +780,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:M2" si="0">C11+C21</f>
+        <f t="shared" ref="C2:M2" si="0">C12+C22</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
@@ -1261,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:M3" si="1">C12+C22</f>
+        <f t="shared" ref="C3:M3" si="1">C13+C23</f>
         <v>0</v>
       </c>
       <c r="D3" s="6">
@@ -1311,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:M4" si="2">C13+C23</f>
+        <f t="shared" ref="C4:M4" si="2">C14+C24</f>
         <v>0</v>
       </c>
       <c r="D4" s="6">
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:M5" si="3">C14+C24</f>
+        <f t="shared" ref="C5:M5" si="3">C15+C25</f>
         <v>0</v>
       </c>
       <c r="D5" s="6">
@@ -1411,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" ref="C6:M6" si="4">C15+C25</f>
+        <f t="shared" ref="C6:M6" si="4">C16+C26</f>
         <v>0</v>
       </c>
       <c r="D6" s="6">
@@ -1461,7 +1461,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:M7" si="5">C16+C26</f>
+        <f t="shared" ref="C7:M7" si="5">C17+C27</f>
         <v>0</v>
       </c>
       <c r="D7" s="6">
@@ -1511,7 +1511,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:M8" si="6">C17+C27</f>
+        <f t="shared" ref="C8:M8" si="6">C18+C28</f>
         <v>0</v>
       </c>
       <c r="D8" s="6">
@@ -1555,13 +1555,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.6" customHeight="1" spans="1:13">
+    <row r="9" ht="14" customHeight="1" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:M9" si="7">C18+C28</f>
+        <f t="shared" ref="C9:M9" si="7">C19+C29</f>
         <v>0</v>
       </c>
       <c r="D9" s="6">
@@ -1605,88 +1605,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A10" s="7"/>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4">
-        <f t="shared" ref="C10:M10" si="8">C20+C30</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:M11" si="8">C21+C31</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:C18" si="9">SUM(E11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C12" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
+        <f t="shared" ref="C12:C19" si="9">SUM(E12:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1700,7 +1697,7 @@
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="9"/>
@@ -1720,13 +1717,13 @@
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1740,13 +1737,13 @@
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1760,13 +1757,13 @@
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1780,7 +1777,7 @@
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="9"/>
@@ -1800,7 +1797,7 @@
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="9"/>
@@ -1820,9 +1817,12 @@
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -1835,87 +1835,84 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="7"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:13">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
-        <f>SUM(C11:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:M20" si="10">SUM(D11:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="C21" s="4">
+        <f>SUM(C12:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:M21" si="10">SUM(D12:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
-      <c r="A21" s="3" t="s">
+    <row r="22" customHeight="1" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:C28" si="11">SUM(E21:M21)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C22" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="6"/>
+        <f t="shared" ref="C22:C29" si="11">SUM(E22:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -1929,7 +1926,7 @@
     <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="11"/>
@@ -1949,13 +1946,13 @@
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1969,13 +1966,13 @@
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1989,13 +1986,13 @@
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2009,7 +2006,7 @@
     <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="11"/>
@@ -2029,7 +2026,7 @@
     <row r="28" customHeight="1" spans="1:13">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="11"/>
@@ -2049,9 +2046,12 @@
     <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2064,60 +2064,77 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:13">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:13">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4">
-        <f>SUM(C21:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" ref="D30:M30" si="12">SUM(D21:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="C31" s="4">
+        <f>SUM(C22:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:M31" si="12">SUM(D22:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M31" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/public/static/template/srhz.xlsx
+++ b/public/static/template/srhz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11700"/>
+    <workbookView windowWidth="18468" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="收入汇总表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>单位</t>
   </si>
@@ -109,11 +109,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,16 +141,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="仿宋"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -160,15 +169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +185,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -190,8 +214,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,40 +261,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,51 +290,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,37 +300,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,145 +462,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,39 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,17 +566,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +585,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,153 +608,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,63 +818,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1147,19 +1141,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.46666666666667" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3035714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.575" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
@@ -1610,17 +1604,50 @@
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="C10" s="4">
+        <f>C20+C30</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f>D20+D30</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10:M10" si="8">E20+E30</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1" spans="1:13">
       <c r="A11" s="7"/>
@@ -1628,47 +1655,47 @@
         <v>23</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:M11" si="8">C21+C31</f>
+        <f t="shared" ref="C11:M11" si="9">C21+C31</f>
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1680,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:C19" si="9">SUM(E12:M12)</f>
+        <f t="shared" ref="C12:C19" si="10">SUM(E12:M12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
@@ -1700,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
@@ -1720,7 +1747,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
@@ -1740,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D15" s="8"/>
@@ -1760,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D16" s="9"/>
@@ -1780,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
@@ -1800,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
@@ -1820,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
@@ -1839,7 +1866,10 @@
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4">
+        <f>SUM(D20:M20)</f>
+        <v>0</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1861,43 +1891,43 @@
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:M21" si="10">SUM(D12:D19)</f>
+        <f t="shared" ref="D21:M21" si="11">SUM(D12:D19)</f>
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1909,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:C29" si="11">SUM(E22:M22)</f>
+        <f t="shared" ref="C22:C29" si="12">SUM(E22:M22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="8"/>
@@ -1929,7 +1959,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D23" s="6"/>
@@ -1949,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D24" s="6"/>
@@ -1969,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D25" s="8"/>
@@ -1989,7 +2019,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D26" s="9"/>
@@ -2009,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D27" s="6"/>
@@ -2029,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D28" s="6"/>
@@ -2049,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D29" s="6"/>
@@ -2090,43 +2120,43 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:M31" si="12">SUM(D22:D29)</f>
+        <f t="shared" ref="D31:M31" si="13">SUM(D22:D29)</f>
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
